--- a/LinearRegression/COVID-19/Mar_27_2020_results.xlsx
+++ b/LinearRegression/COVID-19/Mar_27_2020_results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a19339885763181/Surface/Sadguru/Lakshmi/Study/IIIB_PGDS/Git_Pub/DataScience/LinearRegression/COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:4000b_{7D6DE4F7-6379-4351-9DA6-FAEFDC4B7F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5FC35175-FEB6-4C0C-B0A6-3E0D330F97AE}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:4000b_{7D6DE4F7-6379-4351-9DA6-FAEFDC4B7F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A1601FE-7F20-4B15-9424-8ABF17CA1219}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12340" yWindow="5480" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mar_27_2020_results" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mar_27_2020_results!$A$1:$T$72</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Day</t>
   </si>
@@ -83,6 +84,39 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>WW_Predictions</t>
+  </si>
+  <si>
+    <t>Italy_Predictions</t>
+  </si>
+  <si>
+    <t>Italy_Actuals</t>
+  </si>
+  <si>
+    <t>US_Predictions</t>
+  </si>
+  <si>
+    <t>US_Actual</t>
+  </si>
+  <si>
+    <t>Spain_Predictions</t>
+  </si>
+  <si>
+    <t>Spain_Actual</t>
+  </si>
+  <si>
+    <t>Germany_Predictions</t>
+  </si>
+  <si>
+    <t>Germany_Actual</t>
+  </si>
+  <si>
+    <t>WW_Actuals</t>
   </si>
 </sst>
 </file>
@@ -430,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -560,6 +594,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -605,16 +697,63 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -662,6 +801,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -974,86 +1118,91 @@
   <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+      <selection activeCell="B1" sqref="B1:Q72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" customWidth="1"/>
-    <col min="6" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="4" max="4" width="0.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" customWidth="1"/>
+    <col min="13" max="13" width="18.6328125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="0.1796875" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4840,564 +4989,574 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A63">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="4">
         <v>43913</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>373662</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>381735</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>378235</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <v>58850</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="3">
         <v>62531</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="3">
         <v>63927</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="3">
         <v>40788</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="3">
         <v>38964</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="3">
         <v>43847</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="3">
         <v>35352</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="3">
         <v>35823</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="3">
         <v>35136</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="3">
         <v>29082</v>
       </c>
-      <c r="P63">
+      <c r="P63" s="3">
         <v>26622</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" s="3">
         <v>29056</v>
       </c>
-      <c r="R63">
+      <c r="R63" s="3">
         <v>439</v>
       </c>
-      <c r="S63">
+      <c r="S63" s="3">
         <v>425</v>
       </c>
-      <c r="T63">
+      <c r="T63" s="3">
         <v>499</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A64">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="4">
         <v>43914</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>418431</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <v>430036</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>418045</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <v>64557</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="3">
         <v>69244</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="3">
         <v>69176</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="3">
         <v>52596</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="3">
         <v>49660</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="3">
         <v>53740</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="3">
         <v>41661</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="3">
         <v>42433</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="3">
         <v>39885</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="3">
         <v>33810</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="3">
         <v>30504</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" s="3">
         <v>32986</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="3">
         <v>551</v>
       </c>
-      <c r="S64">
+      <c r="S64" s="3">
         <v>527</v>
       </c>
-      <c r="T64">
+      <c r="T64" s="3">
         <v>536</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A65">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="4">
         <v>43915</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>469018</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <v>485091</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>467593</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
         <v>70629</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="3">
         <v>76469</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="3">
         <v>74386</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="3">
         <v>67286</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="3">
         <v>62788</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="3">
         <v>65778</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="3">
         <v>48850</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="3">
         <v>50052</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="3">
         <v>49515</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="3">
         <v>39111</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="3">
         <v>34790</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="3">
         <v>37323</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="3">
         <v>700</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="3">
         <v>659</v>
       </c>
-      <c r="T65">
+      <c r="T65" s="3">
         <v>657</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>43916</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <v>526021</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>547671</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="7">
         <v>531810</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="5">
         <v>77079</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66" s="5">
         <v>84232</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="7">
         <v>80589</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="5">
         <v>85457</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="5">
         <v>78816</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K66" s="7">
         <v>85435</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L66" s="5">
         <v>57004</v>
       </c>
-      <c r="M66" s="6">
+      <c r="M66" s="5">
         <v>58811</v>
       </c>
-      <c r="N66" s="4">
+      <c r="N66" s="7">
         <v>57786</v>
       </c>
-      <c r="O66" s="6">
+      <c r="O66" s="5">
         <v>45036</v>
       </c>
-      <c r="P66" s="6">
+      <c r="P66" s="5">
         <v>39510</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="Q66" s="7">
         <v>43939</v>
       </c>
-      <c r="R66" s="6">
+      <c r="R66" s="5">
         <v>897</v>
       </c>
-      <c r="S66" s="6">
+      <c r="S66" s="5">
         <v>831</v>
       </c>
-      <c r="T66" s="5">
+      <c r="T66" s="8">
         <v>730</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <v>43917</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="5">
         <v>590087</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>618614</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="7">
         <v>596312</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="5">
         <v>83922</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="5">
         <v>92562</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="7">
         <v>86498</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67" s="5">
         <v>107818</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67" s="5">
         <v>98285</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K67" s="7">
         <v>104126</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L67" s="5">
         <v>66210</v>
       </c>
-      <c r="M67" s="6">
+      <c r="M67" s="5">
         <v>68849</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N67" s="7">
         <v>65719</v>
       </c>
-      <c r="O67" s="6">
+      <c r="O67" s="5">
         <v>51640</v>
       </c>
-      <c r="P67" s="6">
+      <c r="P67" s="5">
         <v>44697</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="Q67" s="7">
         <v>50871</v>
       </c>
-      <c r="R67" s="6">
+      <c r="R67" s="5">
         <v>1157</v>
       </c>
-      <c r="S67" s="6">
+      <c r="S67" s="5">
         <v>1053</v>
       </c>
-      <c r="T67" s="5">
+      <c r="T67" s="8">
         <v>887</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A68" s="2">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="6">
         <v>43918</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="5">
         <v>661909</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="7">
         <v>698833</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2">
+      <c r="E68" s="7">
+        <v>663079</v>
+      </c>
+      <c r="F68" s="5">
         <v>91171</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="5">
         <v>101486</v>
       </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2">
+      <c r="H68" s="7">
+        <v>92472</v>
+      </c>
+      <c r="I68" s="5">
         <v>135204</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="7">
         <v>121825</v>
       </c>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2">
+      <c r="K68" s="8">
+        <v>123578</v>
+      </c>
+      <c r="L68" s="5">
         <v>76554</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68" s="7">
         <v>80323</v>
       </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2">
+      <c r="N68" s="7">
+        <v>73235</v>
+      </c>
+      <c r="O68" s="5">
         <v>58982</v>
       </c>
-      <c r="P68" s="2">
+      <c r="P68" s="8">
         <v>50381</v>
       </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2">
+      <c r="Q68" s="7">
+        <v>57695</v>
+      </c>
+      <c r="R68" s="9">
         <v>1500</v>
       </c>
-      <c r="S68" s="2">
+      <c r="S68" s="9">
         <v>1341</v>
       </c>
-      <c r="T68" s="2"/>
+      <c r="T68" s="9"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A69" s="2">
+      <c r="A69" s="9">
         <v>68</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="10">
         <v>43919</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="9">
         <v>742236</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="9">
         <v>789320</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2">
+      <c r="E69" s="9"/>
+      <c r="F69" s="9">
         <v>98841</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="9">
         <v>111032</v>
       </c>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2">
+      <c r="H69" s="9"/>
+      <c r="I69" s="9">
         <v>168594</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="9">
         <v>150164</v>
       </c>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2">
+      <c r="K69" s="9"/>
+      <c r="L69" s="9">
         <v>88119</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="9">
         <v>93402</v>
       </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2">
+      <c r="N69" s="9"/>
+      <c r="O69" s="9">
         <v>67122</v>
       </c>
-      <c r="P69" s="2">
+      <c r="P69" s="9">
         <v>56599</v>
       </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2">
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9">
         <v>1951</v>
       </c>
-      <c r="S69" s="2">
+      <c r="S69" s="9">
         <v>1713</v>
       </c>
-      <c r="T69" s="2"/>
+      <c r="T69" s="9"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A70" s="2">
+      <c r="A70" s="9">
         <v>69</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="10">
         <v>43920</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="9">
         <v>831868</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="9">
         <v>891155</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2">
+      <c r="E70" s="9"/>
+      <c r="F70" s="9">
         <v>106945</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="9">
         <v>121230</v>
       </c>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2">
+      <c r="H70" s="9"/>
+      <c r="I70" s="9">
         <v>209135</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="9">
         <v>184145</v>
       </c>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2">
+      <c r="K70" s="9"/>
+      <c r="L70" s="9">
         <v>100981</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70" s="9">
         <v>108273</v>
       </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2">
+      <c r="N70" s="9"/>
+      <c r="O70" s="9">
         <v>76127</v>
       </c>
-      <c r="P70" s="2">
+      <c r="P70" s="9">
         <v>63385</v>
       </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2">
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9">
         <v>2544</v>
       </c>
-      <c r="S70" s="2">
+      <c r="S70" s="9">
         <v>2193</v>
       </c>
-      <c r="T70" s="2"/>
+      <c r="T70" s="9"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A71" s="2">
+      <c r="A71" s="9">
         <v>70</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="10">
         <v>43921</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="9">
         <v>931667</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="9">
         <v>1005507</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2">
+      <c r="E71" s="9"/>
+      <c r="F71" s="9">
         <v>115499</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="9">
         <v>132111</v>
       </c>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2">
+      <c r="H71" s="9"/>
+      <c r="I71" s="9">
         <v>258169</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="9">
         <v>224738</v>
       </c>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2">
+      <c r="K71" s="9"/>
+      <c r="L71" s="9">
         <v>115206</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M71" s="9">
         <v>125137</v>
       </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2">
+      <c r="N71" s="9"/>
+      <c r="O71" s="9">
         <v>86068</v>
       </c>
-      <c r="P71" s="2">
+      <c r="P71" s="9">
         <v>70777</v>
       </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2">
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9">
         <v>3319</v>
       </c>
-      <c r="S71" s="2">
+      <c r="S71" s="9">
         <v>2811</v>
       </c>
-      <c r="T71" s="2"/>
+      <c r="T71" s="9"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A72" s="2">
+      <c r="A72" s="9">
         <v>71</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="10">
         <v>43922</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="9">
         <v>1042556</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="9">
         <v>1133641</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2">
+      <c r="E72" s="9"/>
+      <c r="F72" s="9">
         <v>124518</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="9">
         <v>143707</v>
       </c>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2">
+      <c r="H72" s="9"/>
+      <c r="I72" s="9">
         <v>317258</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="9">
         <v>273061</v>
       </c>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2">
+      <c r="K72" s="9"/>
+      <c r="L72" s="9">
         <v>130848</v>
       </c>
-      <c r="M72" s="2">
+      <c r="M72" s="9">
         <v>144215</v>
       </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2">
+      <c r="N72" s="9"/>
+      <c r="O72" s="9">
         <v>97017</v>
       </c>
-      <c r="P72" s="2">
+      <c r="P72" s="9">
         <v>78816</v>
       </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2">
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9">
         <v>4330</v>
       </c>
-      <c r="S72" s="2">
+      <c r="S72" s="9">
         <v>3605</v>
       </c>
-      <c r="T72" s="2"/>
+      <c r="T72" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T72" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -5419,4 +5578,180 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD6012D-BE7D-44C9-926A-879977758EFB}">
+  <dimension ref="E1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19">
+        <v>43916</v>
+      </c>
+      <c r="G2" s="19">
+        <v>43917</v>
+      </c>
+      <c r="H2" s="19">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="3" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="17">
+        <v>526021</v>
+      </c>
+      <c r="G3" s="17">
+        <v>590087</v>
+      </c>
+      <c r="H3" s="17">
+        <v>661909</v>
+      </c>
+    </row>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="14">
+        <v>531810</v>
+      </c>
+      <c r="G4" s="14">
+        <v>596312</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="13">
+        <v>77079</v>
+      </c>
+      <c r="G5" s="13">
+        <v>83922</v>
+      </c>
+      <c r="H5" s="13">
+        <v>91171</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="14">
+        <v>80589</v>
+      </c>
+      <c r="G6" s="14">
+        <v>86498</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="13">
+        <v>85457</v>
+      </c>
+      <c r="G7" s="13">
+        <v>107818</v>
+      </c>
+      <c r="H7" s="13">
+        <v>135204</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="14">
+        <v>85435</v>
+      </c>
+      <c r="G8" s="14">
+        <v>104126</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="13">
+        <v>57004</v>
+      </c>
+      <c r="G9" s="13">
+        <v>66210</v>
+      </c>
+      <c r="H9" s="13">
+        <v>76554</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="14">
+        <v>57786</v>
+      </c>
+      <c r="G10" s="14">
+        <v>65719</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45036</v>
+      </c>
+      <c r="G11" s="13">
+        <v>51640</v>
+      </c>
+      <c r="H11" s="13">
+        <v>58982</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="15">
+        <v>43939</v>
+      </c>
+      <c r="G12" s="15">
+        <v>50871</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>